--- a/web/test.xlsx
+++ b/web/test.xlsx
@@ -78,7 +78,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Лікар, що створив взаємодію</t>
@@ -134,8 +134,18 @@
           <t>9.10</t>
         </is>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Всього</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="0" t="inlineStr">
         <is>
           <t>Гаврилюк Світлана Володимирівна</t>
@@ -156,8 +166,14 @@
       <c r="K2" s="0">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="0">
+        <v>747</v>
+      </c>
+      <c r="M2" s="0">
+        <v>37.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="0" t="inlineStr">
         <is>
           <t>Глушко Наталія Григорівна</t>
@@ -169,8 +185,14 @@
       <c r="F3" s="0">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="0">
+        <v>882</v>
+      </c>
+      <c r="M3" s="0">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="0" t="inlineStr">
         <is>
           <t>Рибак Тетяна Миколаївна</t>
@@ -179,8 +201,14 @@
       <c r="K4" s="0">
         <v>225</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="0">
+        <v>3132</v>
+      </c>
+      <c r="M4" s="0">
+        <v>156.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="0" t="inlineStr">
         <is>
           <t>Кащенюк Олексій Леонідович</t>
@@ -189,8 +217,14 @@
       <c r="H5" s="0">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="0">
+        <v>3195</v>
+      </c>
+      <c r="M5" s="0">
+        <v>159.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="0" t="inlineStr">
         <is>
           <t>Пінчук Олексій Миколайович</t>
@@ -199,8 +233,14 @@
       <c r="K6" s="0">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="0">
+        <v>4185</v>
+      </c>
+      <c r="M6" s="0">
+        <v>209.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="0" t="inlineStr">
         <is>
           <t>Хомич Олег Андрійович</t>
@@ -215,8 +255,14 @@
       <c r="K7" s="0">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="0">
+        <v>4455</v>
+      </c>
+      <c r="M7" s="0">
+        <v>222.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="0" t="inlineStr">
         <is>
           <t>Карпюк Лариса Іванівна</t>
@@ -225,8 +271,14 @@
       <c r="D8" s="0">
         <v>369</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="0">
+        <v>5562</v>
+      </c>
+      <c r="M8" s="0">
+        <v>278.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="0" t="inlineStr">
         <is>
           <t>Третяк Ірина Борисівна</t>
@@ -235,8 +287,14 @@
       <c r="H9" s="0">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="0">
+        <v>5688</v>
+      </c>
+      <c r="M9" s="0">
+        <v>284.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="0" t="inlineStr">
         <is>
           <t>Березюк Світлана Вікторівна</t>
@@ -245,8 +303,14 @@
       <c r="D10" s="0">
         <v>99</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="0">
+        <v>5985</v>
+      </c>
+      <c r="M10" s="0">
+        <v>299.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="0" t="inlineStr">
         <is>
           <t>Рудь Юрій Євгенович</t>
@@ -264,8 +328,14 @@
       <c r="J11" s="0">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="0">
+        <v>7731</v>
+      </c>
+      <c r="M11" s="0">
+        <v>386.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="0" t="inlineStr">
         <is>
           <t>Жук Тетяна Йосипівна</t>
@@ -286,8 +356,14 @@
       <c r="K12" s="0">
         <v>189</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="0">
+        <v>11124</v>
+      </c>
+      <c r="M12" s="0">
+        <v>556.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="0" t="inlineStr">
         <is>
           <t>Кікавська Тетяна Анатоліївна</t>
@@ -296,8 +372,14 @@
       <c r="F13" s="0">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="0">
+        <v>11349</v>
+      </c>
+      <c r="M13" s="0">
+        <v>567.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="0" t="inlineStr">
         <is>
           <t>Крук Людмила Василівна</t>
@@ -312,8 +394,14 @@
       <c r="K14" s="0">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="0">
+        <v>11889</v>
+      </c>
+      <c r="M14" s="0">
+        <v>594.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="0" t="inlineStr">
         <is>
           <t>Сеник Василь Васильович</t>
@@ -331,8 +419,14 @@
       <c r="K15" s="0">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" s="0">
+        <v>12879</v>
+      </c>
+      <c r="M15" s="0">
+        <v>643.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="0" t="inlineStr">
         <is>
           <t>Волинюк Уляна Василівна</t>
@@ -347,8 +441,14 @@
       <c r="K16" s="0">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="0">
+        <v>13410</v>
+      </c>
+      <c r="M16" s="0">
+        <v>670.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="0" t="inlineStr">
         <is>
           <t>Байчук Тетяна Микитівна</t>
@@ -363,8 +463,14 @@
       <c r="K17" s="0">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="0">
+        <v>14130</v>
+      </c>
+      <c r="M17" s="0">
+        <v>706.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="0" t="inlineStr">
         <is>
           <t>Сокоринський Валерій Михайлович</t>
@@ -373,8 +479,14 @@
       <c r="B18" s="0">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="0">
+        <v>14238</v>
+      </c>
+      <c r="M18" s="0">
+        <v>711.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="0" t="inlineStr">
         <is>
           <t>Біліч Людмила Степанівна</t>
@@ -383,8 +495,14 @@
       <c r="E19" s="0">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="0">
+        <v>14274</v>
+      </c>
+      <c r="M19" s="0">
+        <v>713.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="0" t="inlineStr">
         <is>
           <t>Шабанова Оксана Василівна</t>
@@ -393,8 +511,14 @@
       <c r="C20" s="0">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="0">
+        <v>14355</v>
+      </c>
+      <c r="M20" s="0">
+        <v>717.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="0" t="inlineStr">
         <is>
           <t>Ковальчук Алла Павлівна</t>
@@ -403,8 +527,14 @@
       <c r="D21" s="0">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="0">
+        <v>14409</v>
+      </c>
+      <c r="M21" s="0">
+        <v>720.45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="0" t="inlineStr">
         <is>
           <t>Березнюк Ірина Олегівна</t>
@@ -422,8 +552,14 @@
       <c r="K22" s="0">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="0">
+        <v>15021</v>
+      </c>
+      <c r="M22" s="0">
+        <v>751.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="0" t="inlineStr">
         <is>
           <t>Шуляр Юлія Сергіївна</t>
@@ -432,8 +568,14 @@
       <c r="F23" s="0">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="0">
+        <v>15066</v>
+      </c>
+      <c r="M23" s="0">
+        <v>753.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="0" t="inlineStr">
         <is>
           <t>Михальчук Олена Володимирівна</t>
@@ -451,8 +593,14 @@
       <c r="K24" s="0">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="0">
+        <v>15291</v>
+      </c>
+      <c r="M24" s="0">
+        <v>764.55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="0" t="inlineStr">
         <is>
           <t>Іванюк Світлана Петрівна</t>
@@ -461,8 +609,14 @@
       <c r="F25" s="0">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="0">
+        <v>15336</v>
+      </c>
+      <c r="M25" s="0">
+        <v>766.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="0" t="inlineStr">
         <is>
           <t>Зайцев Андрій Олександрович</t>
@@ -471,8 +625,14 @@
       <c r="G26" s="0">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" s="0">
+        <v>15444</v>
+      </c>
+      <c r="M26" s="0">
+        <v>772.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="0" t="inlineStr">
         <is>
           <t>Дмитрук Тетяна Сергіївна</t>
@@ -480,6 +640,12 @@
       </c>
       <c r="H27" s="0">
         <v>9</v>
+      </c>
+      <c r="L27" s="0">
+        <v>15507</v>
+      </c>
+      <c r="M27" s="0">
+        <v>775.35</v>
       </c>
     </row>
   </sheetData>

--- a/web/test.xlsx
+++ b/web/test.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -29,6 +29,12 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <b/>
     </font>
   </fonts>
   <fills count="4">
@@ -60,12 +66,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -151,26 +160,29 @@
           <t>Гаврилюк Світлана Володимирівна</t>
         </is>
       </c>
+      <c r="B2" s="0">
+        <v>1</v>
+      </c>
       <c r="D2" s="0">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F2" s="0">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="H2" s="0">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I2" s="0">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K2" s="0">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="L2" s="0">
-        <v>747</v>
+        <v>249.755</v>
       </c>
       <c r="M2" s="0">
-        <v>37.35</v>
+        <v>12.48775</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -180,16 +192,28 @@
         </is>
       </c>
       <c r="B3" s="0">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="C3" s="0">
+        <v>4</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0">
+        <v>12</v>
       </c>
       <c r="F3" s="0">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="J3" s="0">
+        <v>1</v>
       </c>
       <c r="L3" s="0">
-        <v>882</v>
+        <v>305.932</v>
       </c>
       <c r="M3" s="0">
-        <v>44.1</v>
+        <v>15.2966</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -198,14 +222,20 @@
           <t>Рибак Тетяна Миколаївна</t>
         </is>
       </c>
+      <c r="B4" s="0">
+        <v>65</v>
+      </c>
+      <c r="J4" s="0">
+        <v>65</v>
+      </c>
       <c r="K4" s="0">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="L4" s="0">
-        <v>3132</v>
+        <v>588.07</v>
       </c>
       <c r="M4" s="0">
-        <v>156.6</v>
+        <v>29.4035</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -215,13 +245,13 @@
         </is>
       </c>
       <c r="H5" s="0">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L5" s="0">
-        <v>3195</v>
+        <v>594.778</v>
       </c>
       <c r="M5" s="0">
-        <v>159.75</v>
+        <v>29.7389</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -230,14 +260,17 @@
           <t>Пінчук Олексій Миколайович</t>
         </is>
       </c>
+      <c r="J6" s="0">
+        <v>37</v>
+      </c>
       <c r="K6" s="0">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="L6" s="0">
-        <v>4185</v>
+        <v>689.715</v>
       </c>
       <c r="M6" s="0">
-        <v>209.25</v>
+        <v>34.48575</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -247,19 +280,19 @@
         </is>
       </c>
       <c r="D7" s="0">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="H7" s="0">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="K7" s="0">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="L7" s="0">
-        <v>4455</v>
+        <v>855.107</v>
       </c>
       <c r="M7" s="0">
-        <v>222.75</v>
+        <v>42.75535</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -269,13 +302,13 @@
         </is>
       </c>
       <c r="D8" s="0">
-        <v>369</v>
+        <v>514</v>
       </c>
       <c r="L8" s="0">
-        <v>5562</v>
+        <v>1580.875</v>
       </c>
       <c r="M8" s="0">
-        <v>278.1</v>
+        <v>79.04375</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -285,13 +318,13 @@
         </is>
       </c>
       <c r="H9" s="0">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="L9" s="0">
-        <v>5688</v>
+        <v>1761.991</v>
       </c>
       <c r="M9" s="0">
-        <v>284.4</v>
+        <v>88.09955</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -300,14 +333,17 @@
           <t>Березюк Світлана Вікторівна</t>
         </is>
       </c>
+      <c r="C10" s="0">
+        <v>27</v>
+      </c>
       <c r="D10" s="0">
-        <v>99</v>
+        <v>279</v>
       </c>
       <c r="L10" s="0">
-        <v>5985</v>
+        <v>2175.406</v>
       </c>
       <c r="M10" s="0">
-        <v>299.25</v>
+        <v>108.7703</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -317,22 +353,22 @@
         </is>
       </c>
       <c r="B11" s="0">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F11" s="0">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I11" s="0">
         <v>54</v>
       </c>
       <c r="J11" s="0">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="L11" s="0">
-        <v>7731</v>
+        <v>2563.474</v>
       </c>
       <c r="M11" s="0">
-        <v>386.55</v>
+        <v>128.1737</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -342,25 +378,28 @@
         </is>
       </c>
       <c r="D12" s="0">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="F12" s="0">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="H12" s="0">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="I12" s="0">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="J12" s="0">
+        <v>18</v>
       </c>
       <c r="K12" s="0">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="L12" s="0">
-        <v>11124</v>
+        <v>3037.977</v>
       </c>
       <c r="M12" s="0">
-        <v>556.2</v>
+        <v>151.89885</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -370,13 +409,13 @@
         </is>
       </c>
       <c r="F13" s="0">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="L13" s="0">
-        <v>11349</v>
+        <v>3261.037</v>
       </c>
       <c r="M13" s="0">
-        <v>567.45</v>
+        <v>163.05185</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -386,19 +425,28 @@
         </is>
       </c>
       <c r="D14" s="0">
-        <v>27</v>
+        <v>79</v>
+      </c>
+      <c r="F14" s="0">
+        <v>22</v>
       </c>
       <c r="H14" s="0">
-        <v>27</v>
+        <v>91</v>
+      </c>
+      <c r="I14" s="0">
+        <v>3</v>
+      </c>
+      <c r="J14" s="0">
+        <v>9</v>
       </c>
       <c r="K14" s="0">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="L14" s="0">
-        <v>11889</v>
+        <v>3716.707</v>
       </c>
       <c r="M14" s="0">
-        <v>594.45</v>
+        <v>185.83535</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -407,23 +455,32 @@
           <t>Сеник Василь Васильович</t>
         </is>
       </c>
+      <c r="B15" s="0">
+        <v>5</v>
+      </c>
       <c r="D15" s="0">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F15" s="0">
         <v>18</v>
       </c>
       <c r="H15" s="0">
-        <v>45</v>
+        <v>28</v>
+      </c>
+      <c r="I15" s="0">
+        <v>2</v>
+      </c>
+      <c r="J15" s="0">
+        <v>1</v>
       </c>
       <c r="K15" s="0">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="L15" s="0">
-        <v>12879</v>
+        <v>3860.109</v>
       </c>
       <c r="M15" s="0">
-        <v>643.95</v>
+        <v>193.00545</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -432,20 +489,29 @@
           <t>Волинюк Уляна Василівна</t>
         </is>
       </c>
+      <c r="B16" s="0">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0">
+        <v>1</v>
+      </c>
       <c r="F16" s="0">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H16" s="0">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="J16" s="0">
+        <v>2</v>
       </c>
       <c r="K16" s="0">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="L16" s="0">
-        <v>13410</v>
+        <v>3887.42</v>
       </c>
       <c r="M16" s="0">
-        <v>670.5</v>
+        <v>194.371</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -455,19 +521,28 @@
         </is>
       </c>
       <c r="D17" s="0">
-        <v>27</v>
+        <v>52</v>
+      </c>
+      <c r="F17" s="0">
+        <v>7</v>
       </c>
       <c r="H17" s="0">
-        <v>27</v>
+        <v>70</v>
+      </c>
+      <c r="I17" s="0">
+        <v>7</v>
+      </c>
+      <c r="J17" s="0">
+        <v>7</v>
       </c>
       <c r="K17" s="0">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="L17" s="0">
-        <v>14130</v>
+        <v>4244.736</v>
       </c>
       <c r="M17" s="0">
-        <v>706.5</v>
+        <v>212.2368</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -477,13 +552,31 @@
         </is>
       </c>
       <c r="B18" s="0">
-        <v>54</v>
+        <v>180</v>
+      </c>
+      <c r="C18" s="0">
+        <v>6</v>
+      </c>
+      <c r="E18" s="0">
+        <v>7</v>
+      </c>
+      <c r="F18" s="0">
+        <v>21</v>
+      </c>
+      <c r="G18" s="0">
+        <v>1</v>
+      </c>
+      <c r="I18" s="0">
+        <v>99</v>
+      </c>
+      <c r="J18" s="0">
+        <v>111</v>
       </c>
       <c r="L18" s="0">
-        <v>14238</v>
+        <v>4838.185</v>
       </c>
       <c r="M18" s="0">
-        <v>711.9</v>
+        <v>241.90925</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -493,13 +586,13 @@
         </is>
       </c>
       <c r="E19" s="0">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L19" s="0">
-        <v>14274</v>
+        <v>4872.825</v>
       </c>
       <c r="M19" s="0">
-        <v>713.7</v>
+        <v>243.64125</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -509,13 +602,22 @@
         </is>
       </c>
       <c r="C20" s="0">
-        <v>27</v>
+        <v>840</v>
+      </c>
+      <c r="D20" s="0">
+        <v>51</v>
+      </c>
+      <c r="E20" s="0">
+        <v>110</v>
+      </c>
+      <c r="K20" s="0">
+        <v>2</v>
       </c>
       <c r="L20" s="0">
-        <v>14355</v>
+        <v>5790.273</v>
       </c>
       <c r="M20" s="0">
-        <v>717.75</v>
+        <v>289.51365</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -524,14 +626,20 @@
           <t>Ковальчук Алла Павлівна</t>
         </is>
       </c>
+      <c r="C21" s="0">
+        <v>31</v>
+      </c>
       <c r="D21" s="0">
-        <v>18</v>
+        <v>705</v>
+      </c>
+      <c r="E21" s="0">
+        <v>5</v>
       </c>
       <c r="L21" s="0">
-        <v>14409</v>
+        <v>6818.909</v>
       </c>
       <c r="M21" s="0">
-        <v>720.45</v>
+        <v>340.94545</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -540,23 +648,29 @@
           <t>Березнюк Ірина Олегівна</t>
         </is>
       </c>
+      <c r="D22" s="0">
+        <v>35</v>
+      </c>
       <c r="F22" s="0">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H22" s="0">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="I22" s="0">
+        <v>1</v>
       </c>
       <c r="J22" s="0">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="K22" s="0">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="L22" s="0">
-        <v>15021</v>
+        <v>7132.839</v>
       </c>
       <c r="M22" s="0">
-        <v>751.05</v>
+        <v>356.64195</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -566,13 +680,13 @@
         </is>
       </c>
       <c r="F23" s="0">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="L23" s="0">
-        <v>15066</v>
+        <v>7405.207</v>
       </c>
       <c r="M23" s="0">
-        <v>753.3</v>
+        <v>370.26035</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -581,23 +695,26 @@
           <t>Михальчук Олена Володимирівна</t>
         </is>
       </c>
+      <c r="B24" s="0">
+        <v>1</v>
+      </c>
       <c r="D24" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F24" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H24" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K24" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L24" s="0">
-        <v>15291</v>
+        <v>7430.155</v>
       </c>
       <c r="M24" s="0">
-        <v>764.55</v>
+        <v>371.50775</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -607,13 +724,13 @@
         </is>
       </c>
       <c r="F25" s="0">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="L25" s="0">
-        <v>15336</v>
+        <v>7640.301</v>
       </c>
       <c r="M25" s="0">
-        <v>766.8</v>
+        <v>382.01505</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -623,13 +740,13 @@
         </is>
       </c>
       <c r="G26" s="0">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="L26" s="0">
-        <v>15444</v>
+        <v>8450.911</v>
       </c>
       <c r="M26" s="0">
-        <v>772.2</v>
+        <v>422.54555</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -638,14 +755,2476 @@
           <t>Дмитрук Тетяна Сергіївна</t>
         </is>
       </c>
+      <c r="F27" s="0">
+        <v>4</v>
+      </c>
       <c r="H27" s="0">
+        <v>3</v>
+      </c>
+      <c r="I27" s="0">
+        <v>19</v>
+      </c>
+      <c r="J27" s="0">
+        <v>22</v>
+      </c>
+      <c r="K27" s="0">
+        <v>34</v>
+      </c>
+      <c r="L27" s="0">
+        <v>8583.054</v>
+      </c>
+      <c r="M27" s="0">
+        <v>429.1527</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Дудік Інга Іванівна</t>
+        </is>
+      </c>
+      <c r="F28" s="0">
+        <v>128</v>
+      </c>
+      <c r="G28" s="0">
+        <v>1</v>
+      </c>
+      <c r="L28" s="0">
+        <v>8737.261</v>
+      </c>
+      <c r="M28" s="0">
+        <v>436.86305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Пташник Тетяна Зіновіївна</t>
+        </is>
+      </c>
+      <c r="D29" s="0">
+        <v>15</v>
+      </c>
+      <c r="F29" s="0">
+        <v>1</v>
+      </c>
+      <c r="H29" s="0">
+        <v>19</v>
+      </c>
+      <c r="K29" s="0">
+        <v>23</v>
+      </c>
+      <c r="L29" s="0">
+        <v>8821.028</v>
+      </c>
+      <c r="M29" s="0">
+        <v>441.0514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Ющик Віктор Федорович</t>
+        </is>
+      </c>
+      <c r="F30" s="0">
+        <v>164</v>
+      </c>
+      <c r="L30" s="0">
+        <v>9013.564</v>
+      </c>
+      <c r="M30" s="0">
+        <v>450.6782</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Котік Роман Васильович</t>
+        </is>
+      </c>
+      <c r="D31" s="0">
+        <v>14</v>
+      </c>
+      <c r="H31" s="0">
+        <v>15</v>
+      </c>
+      <c r="I31" s="0">
+        <v>1</v>
+      </c>
+      <c r="K31" s="0">
+        <v>20</v>
+      </c>
+      <c r="L31" s="0">
+        <v>9086.711</v>
+      </c>
+      <c r="M31" s="0">
+        <v>454.33555</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Степанюк Іванна Василівна</t>
+        </is>
+      </c>
+      <c r="F32" s="0">
+        <v>134</v>
+      </c>
+      <c r="L32" s="0">
+        <v>9244.027</v>
+      </c>
+      <c r="M32" s="0">
+        <v>462.20135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Перебойчук Світлана Сергіївна</t>
+        </is>
+      </c>
+      <c r="D33" s="0">
+        <v>31</v>
+      </c>
+      <c r="F33" s="0">
+        <v>11</v>
+      </c>
+      <c r="H33" s="0">
+        <v>45</v>
+      </c>
+      <c r="I33" s="0">
+        <v>4</v>
+      </c>
+      <c r="J33" s="0">
+        <v>19</v>
+      </c>
+      <c r="K33" s="0">
+        <v>76</v>
+      </c>
+      <c r="L33" s="0">
+        <v>9502.059</v>
+      </c>
+      <c r="M33" s="0">
+        <v>475.10295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>Мороз Людмила Михайлівна</t>
+        </is>
+      </c>
+      <c r="B34" s="0">
+        <v>213</v>
+      </c>
+      <c r="D34" s="0">
+        <v>78</v>
+      </c>
+      <c r="J34" s="0">
+        <v>38</v>
+      </c>
+      <c r="K34" s="0">
+        <v>104</v>
+      </c>
+      <c r="L34" s="0">
+        <v>9826.134</v>
+      </c>
+      <c r="M34" s="0">
+        <v>491.3067</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>Дубнюк Галина Миколаївна</t>
+        </is>
+      </c>
+      <c r="F35" s="0">
+        <v>146</v>
+      </c>
+      <c r="L35" s="0">
+        <v>9997.538</v>
+      </c>
+      <c r="M35" s="0">
+        <v>499.8769</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>Федорко Лариса Володимирівна</t>
+        </is>
+      </c>
+      <c r="C36" s="0">
+        <v>580</v>
+      </c>
+      <c r="D36" s="0">
+        <v>78</v>
+      </c>
+      <c r="E36" s="0">
+        <v>55</v>
+      </c>
+      <c r="K36" s="0">
+        <v>11</v>
+      </c>
+      <c r="L36" s="0">
+        <v>10653.982</v>
+      </c>
+      <c r="M36" s="0">
+        <v>532.6991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Солодуха Алла Олександрівна</t>
+        </is>
+      </c>
+      <c r="C37" s="0">
+        <v>317</v>
+      </c>
+      <c r="D37" s="0">
+        <v>37</v>
+      </c>
+      <c r="L37" s="0">
+        <v>10934.783</v>
+      </c>
+      <c r="M37" s="0">
+        <v>546.73915</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>Каспрук Андрій Миронович</t>
+        </is>
+      </c>
+      <c r="G38" s="0">
+        <v>187</v>
+      </c>
+      <c r="L38" s="0">
+        <v>11670.628</v>
+      </c>
+      <c r="M38" s="0">
+        <v>583.5314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>Гусар Віталія Вікторівна</t>
+        </is>
+      </c>
+      <c r="F39" s="0">
+        <v>46</v>
+      </c>
+      <c r="L39" s="0">
+        <v>11724.632</v>
+      </c>
+      <c r="M39" s="0">
+        <v>586.2316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>Іванюк Степан Петрович</t>
+        </is>
+      </c>
+      <c r="B40" s="0">
+        <v>48</v>
+      </c>
+      <c r="F40" s="0">
+        <v>620</v>
+      </c>
+      <c r="L40" s="0">
+        <v>12470.32</v>
+      </c>
+      <c r="M40" s="0">
+        <v>623.516</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>Войтюк Аркадій Аркадійович</t>
+        </is>
+      </c>
+      <c r="D41" s="0">
+        <v>8</v>
+      </c>
+      <c r="F41" s="0">
+        <v>2</v>
+      </c>
+      <c r="H41" s="0">
+        <v>18</v>
+      </c>
+      <c r="I41" s="0">
+        <v>2</v>
+      </c>
+      <c r="J41" s="0">
+        <v>3</v>
+      </c>
+      <c r="K41" s="0">
+        <v>23</v>
+      </c>
+      <c r="L41" s="0">
+        <v>12553.793</v>
+      </c>
+      <c r="M41" s="0">
+        <v>627.68965</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>Римарчук Андрій Вікторович</t>
+        </is>
+      </c>
+      <c r="B42" s="0">
+        <v>351</v>
+      </c>
+      <c r="F42" s="0">
+        <v>182</v>
+      </c>
+      <c r="G42" s="0">
+        <v>4</v>
+      </c>
+      <c r="I42" s="0">
+        <v>10</v>
+      </c>
+      <c r="J42" s="0">
+        <v>194</v>
+      </c>
+      <c r="K42" s="0">
+        <v>304</v>
+      </c>
+      <c r="L42" s="0">
+        <v>13449.216</v>
+      </c>
+      <c r="M42" s="0">
+        <v>672.4608</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>Завгородня Людмила Миколаївна</t>
+        </is>
+      </c>
+      <c r="B43" s="0">
+        <v>2</v>
+      </c>
+      <c r="D43" s="0">
+        <v>45</v>
+      </c>
+      <c r="F43" s="0">
+        <v>11</v>
+      </c>
+      <c r="H43" s="0">
+        <v>50</v>
+      </c>
+      <c r="I43" s="0">
+        <v>5</v>
+      </c>
+      <c r="K43" s="0">
+        <v>53</v>
+      </c>
+      <c r="L43" s="0">
+        <v>13698.726</v>
+      </c>
+      <c r="M43" s="0">
+        <v>684.9363</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>Малюта Катерина Сергіївна</t>
+        </is>
+      </c>
+      <c r="F44" s="0">
+        <v>402</v>
+      </c>
+      <c r="L44" s="0">
+        <v>14170.674</v>
+      </c>
+      <c r="M44" s="0">
+        <v>708.5337</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>Корнелюк Тамара Володимирівна</t>
+        </is>
+      </c>
+      <c r="C45" s="0">
+        <v>165</v>
+      </c>
+      <c r="D45" s="0">
+        <v>22</v>
+      </c>
+      <c r="E45" s="0">
+        <v>33</v>
+      </c>
+      <c r="L45" s="0">
+        <v>14392.148</v>
+      </c>
+      <c r="M45" s="0">
+        <v>719.6074</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>Решетілова Ольга Миколаївна</t>
+        </is>
+      </c>
+      <c r="B46" s="0">
+        <v>234</v>
+      </c>
+      <c r="F46" s="0">
+        <v>36</v>
+      </c>
+      <c r="H46" s="0">
+        <v>226</v>
+      </c>
+      <c r="J46" s="0">
+        <v>178</v>
+      </c>
+      <c r="L46" s="0">
+        <v>15257.606</v>
+      </c>
+      <c r="M46" s="0">
+        <v>762.8803</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>Шимчій Андрій Доротійович</t>
+        </is>
+      </c>
+      <c r="F47" s="0">
+        <v>734</v>
+      </c>
+      <c r="G47" s="0">
+        <v>4</v>
+      </c>
+      <c r="L47" s="0">
+        <v>16135.062</v>
+      </c>
+      <c r="M47" s="0">
+        <v>806.7531</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>Троць Катерина Аркадіївна</t>
+        </is>
+      </c>
+      <c r="F48" s="0">
+        <v>88</v>
+      </c>
+      <c r="L48" s="0">
+        <v>16238.374</v>
+      </c>
+      <c r="M48" s="0">
+        <v>811.9187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>Ковальчук Тетяна Всеволодівна</t>
+        </is>
+      </c>
+      <c r="C49" s="0">
+        <v>886</v>
+      </c>
+      <c r="D49" s="0">
+        <v>10</v>
+      </c>
+      <c r="E49" s="0">
+        <v>44</v>
+      </c>
+      <c r="L49" s="0">
+        <v>16986.56</v>
+      </c>
+      <c r="M49" s="0">
+        <v>849.328</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>Якимець Надія Леонідівна</t>
+        </is>
+      </c>
+      <c r="C50" s="0">
+        <v>1137</v>
+      </c>
+      <c r="D50" s="0">
+        <v>90</v>
+      </c>
+      <c r="E50" s="0">
+        <v>7</v>
+      </c>
+      <c r="L50" s="0">
+        <v>17948.572</v>
+      </c>
+      <c r="M50" s="0">
+        <v>897.4286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>Сахарук Катерина Василівна</t>
+        </is>
+      </c>
+      <c r="C51" s="0">
+        <v>3</v>
+      </c>
+      <c r="D51" s="0">
+        <v>17</v>
+      </c>
+      <c r="L51" s="0">
+        <v>17974.739</v>
+      </c>
+      <c r="M51" s="0">
+        <v>898.73695</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>Анан'єва Любов Павлівна</t>
+        </is>
+      </c>
+      <c r="F52" s="0">
+        <v>28</v>
+      </c>
+      <c r="L52" s="0">
+        <v>18007.611</v>
+      </c>
+      <c r="M52" s="0">
+        <v>900.38055</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>Шеремета Олексанадр Іванович</t>
+        </is>
+      </c>
+      <c r="F53" s="0">
+        <v>4</v>
+      </c>
+      <c r="L53" s="0">
+        <v>18012.307</v>
+      </c>
+      <c r="M53" s="0">
+        <v>900.61535</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>Марчук Руслана Петрівна</t>
+        </is>
+      </c>
+      <c r="F54" s="0">
+        <v>131</v>
+      </c>
+      <c r="L54" s="0">
+        <v>18166.101</v>
+      </c>
+      <c r="M54" s="0">
+        <v>908.30505</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>Нестерук Анна Олегівна</t>
+        </is>
+      </c>
+      <c r="F55" s="0">
+        <v>16</v>
+      </c>
+      <c r="L55" s="0">
+        <v>18184.885</v>
+      </c>
+      <c r="M55" s="0">
+        <v>909.24425</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>Наконечний Сергій Валерійович</t>
+        </is>
+      </c>
+      <c r="F56" s="0">
+        <v>25</v>
+      </c>
+      <c r="L56" s="0">
+        <v>18214.235</v>
+      </c>
+      <c r="M56" s="0">
+        <v>910.71175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>Басістий Василь Федорович</t>
+        </is>
+      </c>
+      <c r="F57" s="0">
+        <v>12</v>
+      </c>
+      <c r="L57" s="0">
+        <v>18228.323</v>
+      </c>
+      <c r="M57" s="0">
+        <v>911.41615</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>Маляр Роман Дмитрович</t>
+        </is>
+      </c>
+      <c r="B58" s="0">
+        <v>128</v>
+      </c>
+      <c r="F58" s="0">
+        <v>106</v>
+      </c>
+      <c r="H58" s="0">
+        <v>69</v>
+      </c>
+      <c r="I58" s="0">
+        <v>13</v>
+      </c>
+      <c r="J58" s="0">
+        <v>32</v>
+      </c>
+      <c r="K58" s="0">
+        <v>119</v>
+      </c>
+      <c r="L58" s="0">
+        <v>18737.939</v>
+      </c>
+      <c r="M58" s="0">
+        <v>936.89695</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>Хомишин Володимир Ізідорович</t>
+        </is>
+      </c>
+      <c r="B59" s="0">
+        <v>200</v>
+      </c>
+      <c r="J59" s="0">
+        <v>85</v>
+      </c>
+      <c r="K59" s="0">
+        <v>113</v>
+      </c>
+      <c r="L59" s="0">
+        <v>19015.468</v>
+      </c>
+      <c r="M59" s="0">
+        <v>950.7734</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>Гончарова Лариса Миколаївна</t>
+        </is>
+      </c>
+      <c r="B60" s="0">
+        <v>172</v>
+      </c>
+      <c r="C60" s="0">
+        <v>2</v>
+      </c>
+      <c r="E60" s="0">
+        <v>1</v>
+      </c>
+      <c r="F60" s="0">
+        <v>14</v>
+      </c>
+      <c r="G60" s="0">
+        <v>1</v>
+      </c>
+      <c r="H60" s="0">
+        <v>45</v>
+      </c>
+      <c r="J60" s="0">
+        <v>113</v>
+      </c>
+      <c r="K60" s="0">
+        <v>172</v>
+      </c>
+      <c r="L60" s="0">
+        <v>19492.108</v>
+      </c>
+      <c r="M60" s="0">
+        <v>974.6054</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>Курас Світлана Валентинівна</t>
+        </is>
+      </c>
+      <c r="C61" s="0">
+        <v>231</v>
+      </c>
+      <c r="L61" s="0">
+        <v>19658.659</v>
+      </c>
+      <c r="M61" s="0">
+        <v>982.93295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>Смоляр Владислав Валерійович</t>
+        </is>
+      </c>
+      <c r="B62" s="0">
+        <v>28</v>
+      </c>
+      <c r="F62" s="0">
+        <v>3</v>
+      </c>
+      <c r="J62" s="0">
+        <v>20</v>
+      </c>
+      <c r="L62" s="0">
+        <v>19698.529</v>
+      </c>
+      <c r="M62" s="0">
+        <v>984.92645</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>Чепара Ярослав Іванович</t>
+        </is>
+      </c>
+      <c r="B63" s="0">
+        <v>49</v>
+      </c>
+      <c r="C63" s="0">
+        <v>28</v>
+      </c>
+      <c r="F63" s="0">
+        <v>22</v>
+      </c>
+      <c r="G63" s="0">
+        <v>20</v>
+      </c>
+      <c r="H63" s="0">
+        <v>36</v>
+      </c>
+      <c r="J63" s="0">
+        <v>16</v>
+      </c>
+      <c r="L63" s="0">
+        <v>19942.688</v>
+      </c>
+      <c r="M63" s="0">
+        <v>997.1344</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>Шумік Світлана Анатоліївна</t>
+        </is>
+      </c>
+      <c r="B64" s="0">
+        <v>49</v>
+      </c>
+      <c r="C64" s="0">
+        <v>15</v>
+      </c>
+      <c r="F64" s="0">
+        <v>5</v>
+      </c>
+      <c r="G64" s="0">
         <v>9</v>
       </c>
-      <c r="L27" s="0">
-        <v>15507</v>
-      </c>
-      <c r="M27" s="0">
-        <v>775.35</v>
+      <c r="H64" s="0">
+        <v>104</v>
+      </c>
+      <c r="I64" s="0">
+        <v>4</v>
+      </c>
+      <c r="J64" s="0">
+        <v>109</v>
+      </c>
+      <c r="K64" s="0">
+        <v>111</v>
+      </c>
+      <c r="L64" s="0">
+        <v>20491.862</v>
+      </c>
+      <c r="M64" s="0">
+        <v>1024.5931</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>Череп Андрій Степанович</t>
+        </is>
+      </c>
+      <c r="B65" s="0">
+        <v>119</v>
+      </c>
+      <c r="F65" s="0">
+        <v>112</v>
+      </c>
+      <c r="G65" s="0">
+        <v>5</v>
+      </c>
+      <c r="H65" s="0">
+        <v>12</v>
+      </c>
+      <c r="I65" s="0">
+        <v>26</v>
+      </c>
+      <c r="J65" s="0">
+        <v>62</v>
+      </c>
+      <c r="K65" s="0">
+        <v>115</v>
+      </c>
+      <c r="L65" s="0">
+        <v>20976.981</v>
+      </c>
+      <c r="M65" s="0">
+        <v>1048.84905</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>Черний Іван Володимирович</t>
+        </is>
+      </c>
+      <c r="B66" s="0">
+        <v>42</v>
+      </c>
+      <c r="C66" s="0">
+        <v>14</v>
+      </c>
+      <c r="E66" s="0">
+        <v>7</v>
+      </c>
+      <c r="F66" s="0">
+        <v>21</v>
+      </c>
+      <c r="G66" s="0">
+        <v>18</v>
+      </c>
+      <c r="H66" s="0">
+        <v>79</v>
+      </c>
+      <c r="J66" s="0">
+        <v>94</v>
+      </c>
+      <c r="K66" s="0">
+        <v>87</v>
+      </c>
+      <c r="L66" s="0">
+        <v>21483.553</v>
+      </c>
+      <c r="M66" s="0">
+        <v>1074.17765</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>Шворак Василь Володимирович</t>
+        </is>
+      </c>
+      <c r="B67" s="0">
+        <v>18</v>
+      </c>
+      <c r="F67" s="0">
+        <v>70</v>
+      </c>
+      <c r="G67" s="0">
+        <v>2</v>
+      </c>
+      <c r="I67" s="0">
+        <v>10</v>
+      </c>
+      <c r="L67" s="0">
+        <v>21614.071</v>
+      </c>
+      <c r="M67" s="0">
+        <v>1080.70355</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>Прач Богдана Романівна</t>
+        </is>
+      </c>
+      <c r="B68" s="0">
+        <v>37</v>
+      </c>
+      <c r="C68" s="0">
+        <v>15</v>
+      </c>
+      <c r="F68" s="0">
+        <v>4</v>
+      </c>
+      <c r="G68" s="0">
+        <v>7</v>
+      </c>
+      <c r="H68" s="0">
+        <v>66</v>
+      </c>
+      <c r="I68" s="0">
+        <v>1</v>
+      </c>
+      <c r="J68" s="0">
+        <v>49</v>
+      </c>
+      <c r="K68" s="0">
+        <v>12</v>
+      </c>
+      <c r="L68" s="0">
+        <v>21895.287</v>
+      </c>
+      <c r="M68" s="0">
+        <v>1094.76435</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>Оксентюк Ганна Олександрівна</t>
+        </is>
+      </c>
+      <c r="B69" s="0">
+        <v>2</v>
+      </c>
+      <c r="C69" s="0">
+        <v>1</v>
+      </c>
+      <c r="F69" s="0">
+        <v>2</v>
+      </c>
+      <c r="G69" s="0">
+        <v>2</v>
+      </c>
+      <c r="H69" s="0">
+        <v>88</v>
+      </c>
+      <c r="I69" s="0">
+        <v>5</v>
+      </c>
+      <c r="J69" s="0">
+        <v>100</v>
+      </c>
+      <c r="K69" s="0">
+        <v>44</v>
+      </c>
+      <c r="L69" s="0">
+        <v>22286.643</v>
+      </c>
+      <c r="M69" s="0">
+        <v>1114.33215</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>Єдинак Ореста Олегівна</t>
+        </is>
+      </c>
+      <c r="B70" s="0">
+        <v>100</v>
+      </c>
+      <c r="C70" s="0">
+        <v>1</v>
+      </c>
+      <c r="F70" s="0">
+        <v>50</v>
+      </c>
+      <c r="G70" s="0">
+        <v>7</v>
+      </c>
+      <c r="I70" s="0">
+        <v>81</v>
+      </c>
+      <c r="J70" s="0">
+        <v>61</v>
+      </c>
+      <c r="K70" s="0">
+        <v>100</v>
+      </c>
+      <c r="L70" s="0">
+        <v>22845.886</v>
+      </c>
+      <c r="M70" s="0">
+        <v>1142.2943</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>Ференц Олександр Віталійович</t>
+        </is>
+      </c>
+      <c r="B71" s="0">
+        <v>97</v>
+      </c>
+      <c r="C71" s="0">
+        <v>33</v>
+      </c>
+      <c r="D71" s="0">
+        <v>1</v>
+      </c>
+      <c r="E71" s="0">
+        <v>1</v>
+      </c>
+      <c r="F71" s="0">
+        <v>24</v>
+      </c>
+      <c r="G71" s="0">
+        <v>18</v>
+      </c>
+      <c r="H71" s="0">
+        <v>84</v>
+      </c>
+      <c r="I71" s="0">
+        <v>1</v>
+      </c>
+      <c r="J71" s="0">
+        <v>61</v>
+      </c>
+      <c r="K71" s="0">
+        <v>58</v>
+      </c>
+      <c r="L71" s="0">
+        <v>23326.364</v>
+      </c>
+      <c r="M71" s="0">
+        <v>1166.3182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>Жигалова Юлія Калениківна</t>
+        </is>
+      </c>
+      <c r="B72" s="0">
+        <v>358</v>
+      </c>
+      <c r="C72" s="0">
+        <v>37</v>
+      </c>
+      <c r="H72" s="0">
+        <v>63</v>
+      </c>
+      <c r="J72" s="0">
+        <v>357</v>
+      </c>
+      <c r="L72" s="0">
+        <v>24090.113</v>
+      </c>
+      <c r="M72" s="0">
+        <v>1204.50565</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>Петрук Іван Анатолійович</t>
+        </is>
+      </c>
+      <c r="B73" s="0">
+        <v>14</v>
+      </c>
+      <c r="L73" s="0">
+        <v>24095.307</v>
+      </c>
+      <c r="M73" s="0">
+        <v>1204.76535</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>Медвідь Ірина Леонтіївна</t>
+        </is>
+      </c>
+      <c r="B74" s="0">
+        <v>3</v>
+      </c>
+      <c r="C74" s="0">
+        <v>10</v>
+      </c>
+      <c r="F74" s="0">
+        <v>3</v>
+      </c>
+      <c r="H74" s="0">
+        <v>8</v>
+      </c>
+      <c r="J74" s="0">
+        <v>5</v>
+      </c>
+      <c r="K74" s="0">
+        <v>1</v>
+      </c>
+      <c r="L74" s="0">
+        <v>24132.353</v>
+      </c>
+      <c r="M74" s="0">
+        <v>1206.61765</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>Костюк Людмила Іванівна</t>
+        </is>
+      </c>
+      <c r="B75" s="0">
+        <v>227</v>
+      </c>
+      <c r="F75" s="0">
+        <v>173</v>
+      </c>
+      <c r="H75" s="0">
+        <v>71</v>
+      </c>
+      <c r="I75" s="0">
+        <v>99</v>
+      </c>
+      <c r="J75" s="0">
+        <v>215</v>
+      </c>
+      <c r="K75" s="0">
+        <v>189</v>
+      </c>
+      <c r="L75" s="0">
+        <v>25347.566</v>
+      </c>
+      <c r="M75" s="0">
+        <v>1267.3783</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>Байчук Богдан Петрович</t>
+        </is>
+      </c>
+      <c r="B76" s="0">
+        <v>5</v>
+      </c>
+      <c r="F76" s="0">
+        <v>5</v>
+      </c>
+      <c r="I76" s="0">
+        <v>1</v>
+      </c>
+      <c r="J76" s="0">
+        <v>3</v>
+      </c>
+      <c r="K76" s="0">
+        <v>5</v>
+      </c>
+      <c r="L76" s="0">
+        <v>25366.679</v>
+      </c>
+      <c r="M76" s="0">
+        <v>1268.33395</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>Мельник Андрій Миколайович</t>
+        </is>
+      </c>
+      <c r="B77" s="0">
+        <v>7</v>
+      </c>
+      <c r="J77" s="0">
+        <v>24</v>
+      </c>
+      <c r="L77" s="0">
+        <v>25400.428</v>
+      </c>
+      <c r="M77" s="0">
+        <v>1270.0214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>Пелип Богдан Миколайович</t>
+        </is>
+      </c>
+      <c r="B78" s="0">
+        <v>93</v>
+      </c>
+      <c r="C78" s="0">
+        <v>1</v>
+      </c>
+      <c r="F78" s="0">
+        <v>11</v>
+      </c>
+      <c r="I78" s="0">
+        <v>20</v>
+      </c>
+      <c r="J78" s="0">
+        <v>21</v>
+      </c>
+      <c r="L78" s="0">
+        <v>25543.404</v>
+      </c>
+      <c r="M78" s="0">
+        <v>1277.1702</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>Чижук Тетяна Миколаївна</t>
+        </is>
+      </c>
+      <c r="B79" s="0">
+        <v>396</v>
+      </c>
+      <c r="C79" s="0">
+        <v>2</v>
+      </c>
+      <c r="J79" s="0">
+        <v>364</v>
+      </c>
+      <c r="L79" s="0">
+        <v>26164.234</v>
+      </c>
+      <c r="M79" s="0">
+        <v>1308.2117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>Дмитрук Петро Олександрович</t>
+        </is>
+      </c>
+      <c r="B80" s="0">
+        <v>184</v>
+      </c>
+      <c r="C80" s="0">
+        <v>1</v>
+      </c>
+      <c r="I80" s="0">
+        <v>9</v>
+      </c>
+      <c r="J80" s="0">
+        <v>167</v>
+      </c>
+      <c r="L80" s="0">
+        <v>26480.396</v>
+      </c>
+      <c r="M80" s="0">
+        <v>1324.0198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>Кубах Зоряна Юріївна</t>
+        </is>
+      </c>
+      <c r="B81" s="0">
+        <v>131</v>
+      </c>
+      <c r="C81" s="0">
+        <v>1</v>
+      </c>
+      <c r="D81" s="0">
+        <v>3</v>
+      </c>
+      <c r="E81" s="0">
+        <v>106</v>
+      </c>
+      <c r="F81" s="0">
+        <v>1</v>
+      </c>
+      <c r="H81" s="0">
+        <v>2</v>
+      </c>
+      <c r="J81" s="0">
+        <v>117</v>
+      </c>
+      <c r="K81" s="0">
+        <v>131</v>
+      </c>
+      <c r="L81" s="0">
+        <v>27028.769</v>
+      </c>
+      <c r="M81" s="0">
+        <v>1351.43845</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>Чиколовець Галина Олександрівна</t>
+        </is>
+      </c>
+      <c r="B82" s="0">
+        <v>160</v>
+      </c>
+      <c r="H82" s="0">
+        <v>57</v>
+      </c>
+      <c r="I82" s="0">
+        <v>3</v>
+      </c>
+      <c r="J82" s="0">
+        <v>159</v>
+      </c>
+      <c r="L82" s="0">
+        <v>27432.1</v>
+      </c>
+      <c r="M82" s="0">
+        <v>1371.605</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>Лукашук Юрій Миколайович</t>
+        </is>
+      </c>
+      <c r="B83" s="0">
+        <v>58</v>
+      </c>
+      <c r="C83" s="0">
+        <v>2</v>
+      </c>
+      <c r="F83" s="0">
+        <v>7</v>
+      </c>
+      <c r="I83" s="0">
+        <v>22</v>
+      </c>
+      <c r="J83" s="0">
+        <v>20</v>
+      </c>
+      <c r="L83" s="0">
+        <v>27563.576</v>
+      </c>
+      <c r="M83" s="0">
+        <v>1378.1788</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>Мазурок Сергій Михайлович</t>
+        </is>
+      </c>
+      <c r="B84" s="0">
+        <v>36</v>
+      </c>
+      <c r="F84" s="0">
+        <v>1</v>
+      </c>
+      <c r="L84" s="0">
+        <v>27578.106</v>
+      </c>
+      <c r="M84" s="0">
+        <v>1378.9053</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>Дорошук Володимир Федорович</t>
+        </is>
+      </c>
+      <c r="B85" s="0">
+        <v>28</v>
+      </c>
+      <c r="L85" s="0">
+        <v>27588.494</v>
+      </c>
+      <c r="M85" s="0">
+        <v>1379.4247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>Сиротюк Андрій Андрійович</t>
+        </is>
+      </c>
+      <c r="B86" s="0">
+        <v>136</v>
+      </c>
+      <c r="G86" s="0">
+        <v>68</v>
+      </c>
+      <c r="J86" s="0">
+        <v>133</v>
+      </c>
+      <c r="K86" s="0">
+        <v>136</v>
+      </c>
+      <c r="L86" s="0">
+        <v>28191.092</v>
+      </c>
+      <c r="M86" s="0">
+        <v>1409.5546</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>Чапек Геннадій Васильович</t>
+        </is>
+      </c>
+      <c r="B87" s="0">
+        <v>24</v>
+      </c>
+      <c r="L87" s="0">
+        <v>28199.996</v>
+      </c>
+      <c r="M87" s="0">
+        <v>1409.9998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>Білоус Сергій Іванович</t>
+        </is>
+      </c>
+      <c r="B88" s="0">
+        <v>135</v>
+      </c>
+      <c r="D88" s="0">
+        <v>21</v>
+      </c>
+      <c r="F88" s="0">
+        <v>74</v>
+      </c>
+      <c r="H88" s="0">
+        <v>9</v>
+      </c>
+      <c r="I88" s="0">
+        <v>78</v>
+      </c>
+      <c r="J88" s="0">
+        <v>132</v>
+      </c>
+      <c r="K88" s="0">
+        <v>86</v>
+      </c>
+      <c r="L88" s="0">
+        <v>28892.409</v>
+      </c>
+      <c r="M88" s="0">
+        <v>1444.62045</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>Кулик Юлія Ігорівна</t>
+        </is>
+      </c>
+      <c r="B89" s="0">
+        <v>92</v>
+      </c>
+      <c r="E89" s="0">
+        <v>26</v>
+      </c>
+      <c r="H89" s="0">
+        <v>23</v>
+      </c>
+      <c r="J89" s="0">
+        <v>73</v>
+      </c>
+      <c r="K89" s="0">
+        <v>92</v>
+      </c>
+      <c r="L89" s="0">
+        <v>29204.729</v>
+      </c>
+      <c r="M89" s="0">
+        <v>1460.23645</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>Гаврилюк Святослав Іванович</t>
+        </is>
+      </c>
+      <c r="B90" s="0">
+        <v>93</v>
+      </c>
+      <c r="J90" s="0">
+        <v>93</v>
+      </c>
+      <c r="L90" s="0">
+        <v>29359.946</v>
+      </c>
+      <c r="M90" s="0">
+        <v>1467.9973</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>Дем'янчук Микола Миколайович</t>
+        </is>
+      </c>
+      <c r="C91" s="0">
+        <v>29</v>
+      </c>
+      <c r="F91" s="0">
+        <v>41</v>
+      </c>
+      <c r="G91" s="0">
+        <v>1</v>
+      </c>
+      <c r="I91" s="0">
+        <v>8</v>
+      </c>
+      <c r="J91" s="0">
+        <v>8</v>
+      </c>
+      <c r="K91" s="0">
+        <v>8</v>
+      </c>
+      <c r="L91" s="0">
+        <v>29476.924</v>
+      </c>
+      <c r="M91" s="0">
+        <v>1473.8462</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>Нагірна Любов Сергіївна</t>
+        </is>
+      </c>
+      <c r="B92" s="0">
+        <v>336</v>
+      </c>
+      <c r="H92" s="0">
+        <v>325</v>
+      </c>
+      <c r="I92" s="0">
+        <v>23</v>
+      </c>
+      <c r="J92" s="0">
+        <v>268</v>
+      </c>
+      <c r="K92" s="0">
+        <v>338</v>
+      </c>
+      <c r="L92" s="0">
+        <v>31032.035</v>
+      </c>
+      <c r="M92" s="0">
+        <v>1551.60175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>Ховайло Антоніна Олексіївна</t>
+        </is>
+      </c>
+      <c r="B93" s="0">
+        <v>206</v>
+      </c>
+      <c r="C93" s="0">
+        <v>13</v>
+      </c>
+      <c r="D93" s="0">
+        <v>45</v>
+      </c>
+      <c r="F93" s="0">
+        <v>1</v>
+      </c>
+      <c r="H93" s="0">
+        <v>57</v>
+      </c>
+      <c r="I93" s="0">
+        <v>4</v>
+      </c>
+      <c r="J93" s="0">
+        <v>124</v>
+      </c>
+      <c r="K93" s="0">
+        <v>207</v>
+      </c>
+      <c r="L93" s="0">
+        <v>31654.829</v>
+      </c>
+      <c r="M93" s="0">
+        <v>1582.74145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>Алєксєйчук Ірина Дмитрівна</t>
+        </is>
+      </c>
+      <c r="D94" s="0">
+        <v>24</v>
+      </c>
+      <c r="F94" s="0">
+        <v>1</v>
+      </c>
+      <c r="H94" s="0">
+        <v>25</v>
+      </c>
+      <c r="K94" s="0">
+        <v>38</v>
+      </c>
+      <c r="L94" s="0">
+        <v>31777.065</v>
+      </c>
+      <c r="M94" s="0">
+        <v>1588.85325</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>Корець Сергій Миколайович</t>
+        </is>
+      </c>
+      <c r="F95" s="0">
+        <v>107</v>
+      </c>
+      <c r="L95" s="0">
+        <v>31902.683</v>
+      </c>
+      <c r="M95" s="0">
+        <v>1595.13415</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>Григола Андрій Миколайович</t>
+        </is>
+      </c>
+      <c r="B96" s="0">
+        <v>227</v>
+      </c>
+      <c r="F96" s="0">
+        <v>152</v>
+      </c>
+      <c r="G96" s="0">
+        <v>5</v>
+      </c>
+      <c r="H96" s="0">
+        <v>71</v>
+      </c>
+      <c r="I96" s="0">
+        <v>10</v>
+      </c>
+      <c r="J96" s="0">
+        <v>204</v>
+      </c>
+      <c r="K96" s="0">
+        <v>159</v>
+      </c>
+      <c r="L96" s="0">
+        <v>32773.218</v>
+      </c>
+      <c r="M96" s="0">
+        <v>1638.6609</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>Гаврилюк Мирослава Іванівна</t>
+        </is>
+      </c>
+      <c r="B97" s="0">
+        <v>1</v>
+      </c>
+      <c r="F97" s="0">
+        <v>5</v>
+      </c>
+      <c r="J97" s="0">
+        <v>5</v>
+      </c>
+      <c r="L97" s="0">
+        <v>32785.949</v>
+      </c>
+      <c r="M97" s="0">
+        <v>1639.29745</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>Сович Ірина Геннадіївна</t>
+        </is>
+      </c>
+      <c r="B98" s="0">
+        <v>58</v>
+      </c>
+      <c r="J98" s="0">
+        <v>57</v>
+      </c>
+      <c r="K98" s="0">
+        <v>58</v>
+      </c>
+      <c r="L98" s="0">
+        <v>32929.187</v>
+      </c>
+      <c r="M98" s="0">
+        <v>1646.45935</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>Ліпич Сергій Анатолійович</t>
+        </is>
+      </c>
+      <c r="B99" s="0">
+        <v>254</v>
+      </c>
+      <c r="I99" s="0">
+        <v>66</v>
+      </c>
+      <c r="J99" s="0">
+        <v>102</v>
+      </c>
+      <c r="K99" s="0">
+        <v>188</v>
+      </c>
+      <c r="L99" s="0">
+        <v>33533.555</v>
+      </c>
+      <c r="M99" s="0">
+        <v>1676.67775</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>Левчук Василь Афанасійович</t>
+        </is>
+      </c>
+      <c r="B100" s="0">
+        <v>164</v>
+      </c>
+      <c r="L100" s="0">
+        <v>33594.399</v>
+      </c>
+      <c r="M100" s="0">
+        <v>1679.71995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>Фіц Іван Васильович</t>
+        </is>
+      </c>
+      <c r="B101" s="0">
+        <v>61</v>
+      </c>
+      <c r="F101" s="0">
+        <v>17</v>
+      </c>
+      <c r="L101" s="0">
+        <v>33636.988</v>
+      </c>
+      <c r="M101" s="0">
+        <v>1681.8494</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>Кухарук Сергій Ростиславович</t>
+        </is>
+      </c>
+      <c r="B102" s="0">
+        <v>81</v>
+      </c>
+      <c r="F102" s="0">
+        <v>3</v>
+      </c>
+      <c r="G102" s="0">
+        <v>6</v>
+      </c>
+      <c r="J102" s="0">
+        <v>59</v>
+      </c>
+      <c r="K102" s="0">
+        <v>5</v>
+      </c>
+      <c r="L102" s="0">
+        <v>33774.868</v>
+      </c>
+      <c r="M102" s="0">
+        <v>1688.7434</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>Редькович Софія Вікторівна</t>
+        </is>
+      </c>
+      <c r="B103" s="0">
+        <v>160</v>
+      </c>
+      <c r="C103" s="0">
+        <v>57</v>
+      </c>
+      <c r="E103" s="0">
+        <v>15</v>
+      </c>
+      <c r="F103" s="0">
+        <v>30</v>
+      </c>
+      <c r="G103" s="0">
+        <v>1</v>
+      </c>
+      <c r="H103" s="0">
+        <v>87</v>
+      </c>
+      <c r="J103" s="0">
+        <v>33</v>
+      </c>
+      <c r="K103" s="0">
+        <v>147</v>
+      </c>
+      <c r="L103" s="0">
+        <v>34305.302</v>
+      </c>
+      <c r="M103" s="0">
+        <v>1715.2651</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>Наумчик Сергій Степанович</t>
+        </is>
+      </c>
+      <c r="B104" s="0">
+        <v>29</v>
+      </c>
+      <c r="D104" s="0">
+        <v>61</v>
+      </c>
+      <c r="F104" s="0">
+        <v>15</v>
+      </c>
+      <c r="H104" s="0">
+        <v>67</v>
+      </c>
+      <c r="J104" s="0">
+        <v>1</v>
+      </c>
+      <c r="K104" s="0">
+        <v>78</v>
+      </c>
+      <c r="L104" s="0">
+        <v>34635.107</v>
+      </c>
+      <c r="M104" s="0">
+        <v>1731.75535</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>Велимчаниця Володимир Іванович</t>
+        </is>
+      </c>
+      <c r="B105" s="0">
+        <v>9</v>
+      </c>
+      <c r="L105" s="0">
+        <v>34638.446</v>
+      </c>
+      <c r="M105" s="0">
+        <v>1731.9223</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>Ісюк Ірина Василівна</t>
+        </is>
+      </c>
+      <c r="B106" s="0">
+        <v>125</v>
+      </c>
+      <c r="C106" s="0">
+        <v>2</v>
+      </c>
+      <c r="E106" s="0">
+        <v>2</v>
+      </c>
+      <c r="F106" s="0">
+        <v>15</v>
+      </c>
+      <c r="G106" s="0">
+        <v>20</v>
+      </c>
+      <c r="J106" s="0">
+        <v>54</v>
+      </c>
+      <c r="K106" s="0">
+        <v>123</v>
+      </c>
+      <c r="L106" s="0">
+        <v>34958.224</v>
+      </c>
+      <c r="M106" s="0">
+        <v>1747.9112</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>Курило Василь Ярославович</t>
+        </is>
+      </c>
+      <c r="B107" s="0">
+        <v>1</v>
+      </c>
+      <c r="L107" s="0">
+        <v>34958.595</v>
+      </c>
+      <c r="M107" s="0">
+        <v>1747.92975</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>Воздіган Наталія Леонтіївна</t>
+        </is>
+      </c>
+      <c r="B108" s="0">
+        <v>44</v>
+      </c>
+      <c r="J108" s="0">
+        <v>44</v>
+      </c>
+      <c r="K108" s="0">
+        <v>44</v>
+      </c>
+      <c r="L108" s="0">
+        <v>35068.243</v>
+      </c>
+      <c r="M108" s="0">
+        <v>1753.41215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>Звоздяк Остап Іванович</t>
+        </is>
+      </c>
+      <c r="B109" s="0">
+        <v>46</v>
+      </c>
+      <c r="I109" s="0">
+        <v>20</v>
+      </c>
+      <c r="J109" s="0">
+        <v>18</v>
+      </c>
+      <c r="K109" s="0">
+        <v>20</v>
+      </c>
+      <c r="L109" s="0">
+        <v>35192.713</v>
+      </c>
+      <c r="M109" s="0">
+        <v>1759.63565</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>Куявович Валерій Валерійович</t>
+        </is>
+      </c>
+      <c r="B110" s="0">
+        <v>1</v>
+      </c>
+      <c r="L110" s="0">
+        <v>35193.084</v>
+      </c>
+      <c r="M110" s="0">
+        <v>1759.6542</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>Янів Руслан Миколайович</t>
+        </is>
+      </c>
+      <c r="B111" s="0">
+        <v>83</v>
+      </c>
+      <c r="F111" s="0">
+        <v>42</v>
+      </c>
+      <c r="I111" s="0">
+        <v>13</v>
+      </c>
+      <c r="L111" s="0">
+        <v>35317.112</v>
+      </c>
+      <c r="M111" s="0">
+        <v>1765.8556</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>Попельницька Іванна Іванівна</t>
+        </is>
+      </c>
+      <c r="H112" s="0">
+        <v>29</v>
+      </c>
+      <c r="J112" s="0">
+        <v>949</v>
+      </c>
+      <c r="L112" s="0">
+        <v>36613.758</v>
+      </c>
+      <c r="M112" s="0">
+        <v>1830.6879</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>Риль Наталія Петрівна</t>
+        </is>
+      </c>
+      <c r="D113" s="0">
+        <v>18</v>
+      </c>
+      <c r="F113" s="0">
+        <v>3</v>
+      </c>
+      <c r="H113" s="0">
+        <v>20</v>
+      </c>
+      <c r="I113" s="0">
+        <v>1</v>
+      </c>
+      <c r="J113" s="0">
+        <v>2</v>
+      </c>
+      <c r="K113" s="0">
+        <v>22</v>
+      </c>
+      <c r="L113" s="0">
+        <v>36711.497</v>
+      </c>
+      <c r="M113" s="0">
+        <v>1835.57485</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>Згоран Тетяна Михайлівна</t>
+        </is>
+      </c>
+      <c r="B114" s="0">
+        <v>153</v>
+      </c>
+      <c r="C114" s="0">
+        <v>64</v>
+      </c>
+      <c r="H114" s="0">
+        <v>2</v>
+      </c>
+      <c r="I114" s="0">
+        <v>1</v>
+      </c>
+      <c r="J114" s="0">
+        <v>146</v>
+      </c>
+      <c r="K114" s="0">
+        <v>22</v>
+      </c>
+      <c r="L114" s="0">
+        <v>37029.869</v>
+      </c>
+      <c r="M114" s="0">
+        <v>1851.49345</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>Двулят Степан Володимирович</t>
+        </is>
+      </c>
+      <c r="B115" s="0">
+        <v>8</v>
+      </c>
+      <c r="C115" s="0">
+        <v>2</v>
+      </c>
+      <c r="E115" s="0">
+        <v>1</v>
+      </c>
+      <c r="F115" s="0">
+        <v>3</v>
+      </c>
+      <c r="H115" s="0">
+        <v>4</v>
+      </c>
+      <c r="J115" s="0">
+        <v>3</v>
+      </c>
+      <c r="L115" s="0">
+        <v>37052.804</v>
+      </c>
+      <c r="M115" s="0">
+        <v>1852.6402</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>Хвесюк Федір Никанорович</t>
+        </is>
+      </c>
+      <c r="F116" s="0">
+        <v>14</v>
+      </c>
+      <c r="L116" s="0">
+        <v>37069.24</v>
+      </c>
+      <c r="M116" s="0">
+        <v>1853.462</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>Куц Людмила Онисимівна</t>
+        </is>
+      </c>
+      <c r="B117" s="0">
+        <v>202</v>
+      </c>
+      <c r="H117" s="0">
+        <v>202</v>
+      </c>
+      <c r="I117" s="0">
+        <v>13</v>
+      </c>
+      <c r="J117" s="0">
+        <v>181</v>
+      </c>
+      <c r="K117" s="0">
+        <v>201</v>
+      </c>
+      <c r="L117" s="0">
+        <v>38040.142</v>
+      </c>
+      <c r="M117" s="0">
+        <v>1902.0071</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>Лисик Лілія Ігорівна</t>
+        </is>
+      </c>
+      <c r="B118" s="0">
+        <v>9</v>
+      </c>
+      <c r="C118" s="0">
+        <v>8</v>
+      </c>
+      <c r="E118" s="0">
+        <v>1</v>
+      </c>
+      <c r="F118" s="0">
+        <v>1</v>
+      </c>
+      <c r="G118" s="0">
+        <v>1</v>
+      </c>
+      <c r="H118" s="0">
+        <v>7</v>
+      </c>
+      <c r="I118" s="0">
+        <v>1</v>
+      </c>
+      <c r="J118" s="0">
+        <v>3</v>
+      </c>
+      <c r="K118" s="0">
+        <v>9</v>
+      </c>
+      <c r="L118" s="0">
+        <v>38086.855</v>
+      </c>
+      <c r="M118" s="0">
+        <v>1904.34275</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>Прач Наталія Василівна</t>
+        </is>
+      </c>
+      <c r="F119" s="0">
+        <v>58</v>
+      </c>
+      <c r="L119" s="0">
+        <v>38154.947</v>
+      </c>
+      <c r="M119" s="0">
+        <v>1907.74735</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>Семенюк Оксана Анатоліївна</t>
+        </is>
+      </c>
+      <c r="J120" s="0">
+        <v>1</v>
+      </c>
+      <c r="L120" s="0">
+        <v>38156.245</v>
+      </c>
+      <c r="M120" s="0">
+        <v>1907.81225</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>Бойко Василь Андрійович</t>
+        </is>
+      </c>
+      <c r="B121" s="0">
+        <v>27</v>
+      </c>
+      <c r="C121" s="0">
+        <v>28</v>
+      </c>
+      <c r="E121" s="0">
+        <v>18</v>
+      </c>
+      <c r="F121" s="0">
+        <v>7</v>
+      </c>
+      <c r="G121" s="0">
+        <v>5</v>
+      </c>
+      <c r="H121" s="0">
+        <v>24</v>
+      </c>
+      <c r="J121" s="0">
+        <v>20</v>
+      </c>
+      <c r="K121" s="0">
+        <v>19</v>
+      </c>
+      <c r="L121" s="0">
+        <v>38348.574</v>
+      </c>
+      <c r="M121" s="0">
+        <v>1917.4287</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>Сеник Наталія Андріївна</t>
+        </is>
+      </c>
+      <c r="B122" s="0">
+        <v>19</v>
+      </c>
+      <c r="D122" s="0">
+        <v>2</v>
+      </c>
+      <c r="J122" s="0">
+        <v>20</v>
+      </c>
+      <c r="K122" s="0">
+        <v>19</v>
+      </c>
+      <c r="L122" s="0">
+        <v>38400.044</v>
+      </c>
+      <c r="M122" s="0">
+        <v>1920.0022</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>Павільчук Сергій Анатолійович</t>
+        </is>
+      </c>
+      <c r="F123" s="0">
+        <v>1</v>
+      </c>
+      <c r="L123" s="0">
+        <v>38401.218</v>
+      </c>
+      <c r="M123" s="0">
+        <v>1920.0609</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>Шамраєв Сергій Миколайович</t>
+        </is>
+      </c>
+      <c r="B124" s="0">
+        <v>2</v>
+      </c>
+      <c r="F124" s="0">
+        <v>3</v>
+      </c>
+      <c r="L124" s="0">
+        <v>38405.482</v>
+      </c>
+      <c r="M124" s="0">
+        <v>1920.2741</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>Лещук Олександр Вікторович</t>
+        </is>
+      </c>
+      <c r="H125" s="0">
+        <v>1</v>
+      </c>
+      <c r="K125" s="0">
+        <v>1</v>
+      </c>
+      <c r="L125" s="0">
+        <v>38408.541</v>
+      </c>
+      <c r="M125" s="0">
+        <v>1920.42705</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>Гайсин Роман Фаязович</t>
+        </is>
+      </c>
+      <c r="D126" s="0">
+        <v>3</v>
+      </c>
+      <c r="F126" s="0">
+        <v>2</v>
+      </c>
+      <c r="H126" s="0">
+        <v>3</v>
+      </c>
+      <c r="J126" s="0">
+        <v>1</v>
+      </c>
+      <c r="K126" s="0">
+        <v>4</v>
+      </c>
+      <c r="L126" s="0">
+        <v>38426.423</v>
+      </c>
+      <c r="M126" s="0">
+        <v>1921.32115</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>Грисюк Тамара Макарівна</t>
+        </is>
+      </c>
+      <c r="F127" s="0">
+        <v>3</v>
+      </c>
+      <c r="L127" s="0">
+        <v>38429.945</v>
+      </c>
+      <c r="M127" s="0">
+        <v>1921.49725</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="3" t="inlineStr">
+        <is>
+          <t>Підсумок</t>
+        </is>
       </c>
     </row>
   </sheetData>
